--- a/Excelproject.xlsx
+++ b/Excelproject.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashp\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3662C2C6-3D08-4126-AEC5-D45B5D3C4D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673F3E0A-1161-4319-A408-E308EA03D015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="4" xr2:uid="{73E1488C-23E6-4ECF-87D4-90BA6C5341BE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="2" activeTab="11" xr2:uid="{73E1488C-23E6-4ECF-87D4-90BA6C5341BE}"/>
   </bookViews>
   <sheets>
     <sheet name="JANUARY" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6572" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6809" uniqueCount="40">
   <si>
     <t>ST. NO</t>
   </si>
@@ -160,6 +160,12 @@
   <si>
     <t>TOTAL</t>
   </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
 </sst>
 </file>
 
@@ -169,7 +175,7 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-14009]dddd\,\ d\ mmmm\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +274,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -316,7 +328,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -366,8 +378,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -397,10 +407,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -721,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FBF2CBB-BA44-4D9E-BE40-E491CD227195}">
   <dimension ref="A1:AJ22"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="AF27" sqref="AF27"/>
+    <sheetView topLeftCell="Z1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection sqref="A1:AJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -768,39 +778,99 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="6"/>
+      <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="AH1" s="6" t="s">
         <v>24</v>
       </c>
@@ -909,7 +979,7 @@
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
-      <c r="AJ2" s="30"/>
+      <c r="AJ2" s="28"/>
     </row>
     <row r="3" spans="1:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -921,7 +991,9 @@
       <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
@@ -940,7 +1012,9 @@
       <c r="J3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="20"/>
+      <c r="K3" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="L3" s="1" t="s">
         <v>25</v>
       </c>
@@ -959,7 +1033,9 @@
       <c r="Q3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="20"/>
+      <c r="R3" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="S3" s="1" t="s">
         <v>25</v>
       </c>
@@ -978,7 +1054,9 @@
       <c r="X3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="20"/>
+      <c r="Y3" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="Z3" s="1" t="s">
         <v>25</v>
       </c>
@@ -997,7 +1075,9 @@
       <c r="AE3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AF3" s="19"/>
+      <c r="AF3" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="AG3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1009,7 +1089,7 @@
         <f>COUNTIF(C3:AG3,"AB")</f>
         <v>6</v>
       </c>
-      <c r="AJ3" s="29">
+      <c r="AJ3" s="27">
         <f>SUM(AH3:AI3)</f>
         <v>26</v>
       </c>
@@ -1024,7 +1104,9 @@
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1043,7 +1125,9 @@
       <c r="J4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="20"/>
+      <c r="K4" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="L4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1062,7 +1146,9 @@
       <c r="Q4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="20"/>
+      <c r="R4" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="S4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1081,7 +1167,9 @@
       <c r="X4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="20"/>
+      <c r="Y4" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="Z4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1100,7 +1188,9 @@
       <c r="AE4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AF4" s="19"/>
+      <c r="AF4" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="AG4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1112,7 +1202,7 @@
         <f t="shared" ref="AI4:AI22" si="1">COUNTIF(C4:AG4,"AB")</f>
         <v>7</v>
       </c>
-      <c r="AJ4" s="29">
+      <c r="AJ4" s="27">
         <f t="shared" ref="AJ4:AJ22" si="2">SUM(AH4:AI4)</f>
         <v>26</v>
       </c>
@@ -1127,7 +1217,9 @@
       <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1146,7 +1238,9 @@
       <c r="J5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="20"/>
+      <c r="K5" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="L5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1165,7 +1259,9 @@
       <c r="Q5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R5" s="20"/>
+      <c r="R5" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="S5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1184,7 +1280,9 @@
       <c r="X5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y5" s="20"/>
+      <c r="Y5" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="Z5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1203,7 +1301,9 @@
       <c r="AE5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AF5" s="19"/>
+      <c r="AF5" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="AG5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1215,7 +1315,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AJ5" s="29">
+      <c r="AJ5" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -1230,7 +1330,9 @@
       <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1249,7 +1351,9 @@
       <c r="J6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="20"/>
+      <c r="K6" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="L6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1268,7 +1372,9 @@
       <c r="Q6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="20"/>
+      <c r="R6" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="S6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1287,7 +1393,9 @@
       <c r="X6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y6" s="20"/>
+      <c r="Y6" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="Z6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1306,7 +1414,9 @@
       <c r="AE6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AF6" s="19"/>
+      <c r="AF6" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="AG6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1318,7 +1428,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AJ6" s="29">
+      <c r="AJ6" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -1333,7 +1443,9 @@
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1352,7 +1464,9 @@
       <c r="J7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="20"/>
+      <c r="K7" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="L7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1371,7 +1485,9 @@
       <c r="Q7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R7" s="20"/>
+      <c r="R7" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="S7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1390,7 +1506,9 @@
       <c r="X7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y7" s="20"/>
+      <c r="Y7" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="Z7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1409,7 +1527,9 @@
       <c r="AE7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AF7" s="19"/>
+      <c r="AF7" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="AG7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1421,7 +1541,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ7" s="29">
+      <c r="AJ7" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -1436,7 +1556,9 @@
       <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1455,7 +1577,9 @@
       <c r="J8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="20"/>
+      <c r="K8" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="L8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1474,7 +1598,9 @@
       <c r="Q8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R8" s="20"/>
+      <c r="R8" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="S8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1493,7 +1619,9 @@
       <c r="X8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y8" s="20"/>
+      <c r="Y8" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="Z8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1512,7 +1640,9 @@
       <c r="AE8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AF8" s="19"/>
+      <c r="AF8" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="AG8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1524,7 +1654,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ8" s="29">
+      <c r="AJ8" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -1539,7 +1669,9 @@
       <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1558,7 +1690,9 @@
       <c r="J9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="20"/>
+      <c r="K9" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="L9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1577,7 +1711,9 @@
       <c r="Q9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R9" s="20"/>
+      <c r="R9" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="S9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,7 +1732,9 @@
       <c r="X9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y9" s="20"/>
+      <c r="Y9" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="Z9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1615,7 +1753,9 @@
       <c r="AE9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AF9" s="19"/>
+      <c r="AF9" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="AG9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1627,7 +1767,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AJ9" s="29">
+      <c r="AJ9" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -1642,7 +1782,9 @@
       <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,7 +1803,9 @@
       <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="20"/>
+      <c r="K10" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="L10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1680,7 +1824,9 @@
       <c r="Q10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R10" s="20"/>
+      <c r="R10" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="S10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1699,7 +1845,9 @@
       <c r="X10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y10" s="20"/>
+      <c r="Y10" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="Z10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1718,7 +1866,9 @@
       <c r="AE10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AF10" s="19"/>
+      <c r="AF10" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="AG10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1730,7 +1880,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ10" s="29">
+      <c r="AJ10" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -1745,7 +1895,9 @@
       <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1764,7 +1916,9 @@
       <c r="J11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="20"/>
+      <c r="K11" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="L11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1783,7 +1937,9 @@
       <c r="Q11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R11" s="20"/>
+      <c r="R11" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="S11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1802,7 +1958,9 @@
       <c r="X11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y11" s="20"/>
+      <c r="Y11" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="Z11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1821,7 +1979,9 @@
       <c r="AE11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AF11" s="19"/>
+      <c r="AF11" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="AG11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1833,7 +1993,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AJ11" s="29">
+      <c r="AJ11" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -1848,7 +2008,9 @@
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="20"/>
+      <c r="D12" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>25</v>
       </c>
@@ -1867,7 +2029,9 @@
       <c r="J12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="20"/>
+      <c r="K12" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="L12" s="1" t="s">
         <v>25</v>
       </c>
@@ -1886,7 +2050,9 @@
       <c r="Q12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R12" s="20"/>
+      <c r="R12" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="S12" s="1" t="s">
         <v>25</v>
       </c>
@@ -1905,7 +2071,9 @@
       <c r="X12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y12" s="20"/>
+      <c r="Y12" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="Z12" s="1" t="s">
         <v>25</v>
       </c>
@@ -1924,7 +2092,9 @@
       <c r="AE12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AF12" s="19"/>
+      <c r="AF12" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="AG12" s="1" t="s">
         <v>25</v>
       </c>
@@ -1936,7 +2106,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AJ12" s="29">
+      <c r="AJ12" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -1951,7 +2121,9 @@
       <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="20"/>
+      <c r="D13" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1970,7 +2142,9 @@
       <c r="J13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="20"/>
+      <c r="K13" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="L13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1989,7 +2163,9 @@
       <c r="Q13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R13" s="20"/>
+      <c r="R13" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="S13" s="1" t="s">
         <v>25</v>
       </c>
@@ -2008,7 +2184,9 @@
       <c r="X13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y13" s="20"/>
+      <c r="Y13" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="Z13" s="1" t="s">
         <v>25</v>
       </c>
@@ -2027,7 +2205,9 @@
       <c r="AE13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AF13" s="19"/>
+      <c r="AF13" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="AG13" s="1" t="s">
         <v>25</v>
       </c>
@@ -2039,7 +2219,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ13" s="29">
+      <c r="AJ13" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -2054,7 +2234,9 @@
       <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="20"/>
+      <c r="D14" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>25</v>
       </c>
@@ -2073,7 +2255,9 @@
       <c r="J14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="20"/>
+      <c r="K14" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="L14" s="1" t="s">
         <v>25</v>
       </c>
@@ -2092,7 +2276,9 @@
       <c r="Q14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R14" s="20"/>
+      <c r="R14" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="S14" s="1" t="s">
         <v>25</v>
       </c>
@@ -2111,7 +2297,9 @@
       <c r="X14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y14" s="20"/>
+      <c r="Y14" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="Z14" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,7 +2318,9 @@
       <c r="AE14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AF14" s="19"/>
+      <c r="AF14" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="AG14" s="1" t="s">
         <v>25</v>
       </c>
@@ -2142,7 +2332,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ14" s="29">
+      <c r="AJ14" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -2157,7 +2347,9 @@
       <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="20"/>
+      <c r="D15" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
@@ -2176,7 +2368,9 @@
       <c r="J15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="20"/>
+      <c r="K15" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="L15" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,7 +2389,9 @@
       <c r="Q15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R15" s="20"/>
+      <c r="R15" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="S15" s="1" t="s">
         <v>25</v>
       </c>
@@ -2214,7 +2410,9 @@
       <c r="X15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y15" s="20"/>
+      <c r="Y15" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="Z15" s="1" t="s">
         <v>25</v>
       </c>
@@ -2233,7 +2431,9 @@
       <c r="AE15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AF15" s="19"/>
+      <c r="AF15" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="AG15" s="1" t="s">
         <v>25</v>
       </c>
@@ -2245,7 +2445,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ15" s="29">
+      <c r="AJ15" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -2260,7 +2460,9 @@
       <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="20"/>
+      <c r="D16" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>26</v>
       </c>
@@ -2279,7 +2481,9 @@
       <c r="J16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="20"/>
+      <c r="K16" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="L16" s="1" t="s">
         <v>25</v>
       </c>
@@ -2298,7 +2502,9 @@
       <c r="Q16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R16" s="20"/>
+      <c r="R16" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="S16" s="1" t="s">
         <v>25</v>
       </c>
@@ -2317,7 +2523,9 @@
       <c r="X16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y16" s="20"/>
+      <c r="Y16" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="Z16" s="1" t="s">
         <v>25</v>
       </c>
@@ -2336,7 +2544,9 @@
       <c r="AE16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AF16" s="19"/>
+      <c r="AF16" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="AG16" s="1" t="s">
         <v>25</v>
       </c>
@@ -2348,7 +2558,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AJ16" s="29">
+      <c r="AJ16" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -2363,7 +2573,9 @@
       <c r="C17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="20"/>
+      <c r="D17" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>25</v>
       </c>
@@ -2382,7 +2594,9 @@
       <c r="J17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="20"/>
+      <c r="K17" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="L17" s="1" t="s">
         <v>25</v>
       </c>
@@ -2401,7 +2615,9 @@
       <c r="Q17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R17" s="20"/>
+      <c r="R17" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="S17" s="1" t="s">
         <v>25</v>
       </c>
@@ -2420,7 +2636,9 @@
       <c r="X17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y17" s="20"/>
+      <c r="Y17" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="Z17" s="1" t="s">
         <v>25</v>
       </c>
@@ -2439,7 +2657,9 @@
       <c r="AE17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AF17" s="19"/>
+      <c r="AF17" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="AG17" s="1" t="s">
         <v>25</v>
       </c>
@@ -2451,7 +2671,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ17" s="29">
+      <c r="AJ17" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -2466,7 +2686,9 @@
       <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="20"/>
+      <c r="D18" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>25</v>
       </c>
@@ -2485,7 +2707,9 @@
       <c r="J18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="20"/>
+      <c r="K18" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="L18" s="1" t="s">
         <v>25</v>
       </c>
@@ -2504,7 +2728,9 @@
       <c r="Q18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R18" s="20"/>
+      <c r="R18" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="S18" s="1" t="s">
         <v>25</v>
       </c>
@@ -2523,7 +2749,9 @@
       <c r="X18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y18" s="20"/>
+      <c r="Y18" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="Z18" s="1" t="s">
         <v>25</v>
       </c>
@@ -2542,7 +2770,9 @@
       <c r="AE18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AF18" s="19"/>
+      <c r="AF18" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="AG18" s="1" t="s">
         <v>25</v>
       </c>
@@ -2554,7 +2784,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AJ18" s="29">
+      <c r="AJ18" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -2569,7 +2799,9 @@
       <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="20"/>
+      <c r="D19" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>26</v>
       </c>
@@ -2588,7 +2820,9 @@
       <c r="J19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="20"/>
+      <c r="K19" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="L19" s="1" t="s">
         <v>25</v>
       </c>
@@ -2607,7 +2841,9 @@
       <c r="Q19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R19" s="20"/>
+      <c r="R19" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="S19" s="1" t="s">
         <v>25</v>
       </c>
@@ -2626,7 +2862,9 @@
       <c r="X19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y19" s="20"/>
+      <c r="Y19" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="Z19" s="1" t="s">
         <v>25</v>
       </c>
@@ -2645,7 +2883,9 @@
       <c r="AE19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AF19" s="19"/>
+      <c r="AF19" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="AG19" s="1" t="s">
         <v>25</v>
       </c>
@@ -2657,7 +2897,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ19" s="29">
+      <c r="AJ19" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -2672,7 +2912,9 @@
       <c r="C20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="20"/>
+      <c r="D20" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>25</v>
       </c>
@@ -2691,7 +2933,9 @@
       <c r="J20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="20"/>
+      <c r="K20" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="L20" s="1" t="s">
         <v>25</v>
       </c>
@@ -2710,7 +2954,9 @@
       <c r="Q20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R20" s="20"/>
+      <c r="R20" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="S20" s="1" t="s">
         <v>25</v>
       </c>
@@ -2729,7 +2975,9 @@
       <c r="X20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y20" s="20"/>
+      <c r="Y20" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="Z20" s="1" t="s">
         <v>25</v>
       </c>
@@ -2748,7 +2996,9 @@
       <c r="AE20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AF20" s="19"/>
+      <c r="AF20" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="AG20" s="1" t="s">
         <v>25</v>
       </c>
@@ -2760,7 +3010,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AJ20" s="29">
+      <c r="AJ20" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -2775,7 +3025,9 @@
       <c r="C21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="20"/>
+      <c r="D21" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>25</v>
       </c>
@@ -2794,7 +3046,9 @@
       <c r="J21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="20"/>
+      <c r="K21" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="L21" s="1" t="s">
         <v>25</v>
       </c>
@@ -2813,7 +3067,9 @@
       <c r="Q21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R21" s="20"/>
+      <c r="R21" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="S21" s="1" t="s">
         <v>25</v>
       </c>
@@ -2832,7 +3088,9 @@
       <c r="X21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y21" s="20"/>
+      <c r="Y21" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="Z21" s="1" t="s">
         <v>25</v>
       </c>
@@ -2851,7 +3109,9 @@
       <c r="AE21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AF21" s="19"/>
+      <c r="AF21" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="AG21" s="1" t="s">
         <v>25</v>
       </c>
@@ -2863,7 +3123,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ21" s="29">
+      <c r="AJ21" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -2878,7 +3138,9 @@
       <c r="C22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="20"/>
+      <c r="D22" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>25</v>
       </c>
@@ -2897,7 +3159,9 @@
       <c r="J22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="20"/>
+      <c r="K22" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="L22" s="1" t="s">
         <v>25</v>
       </c>
@@ -2916,7 +3180,9 @@
       <c r="Q22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R22" s="20"/>
+      <c r="R22" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="S22" s="1" t="s">
         <v>25</v>
       </c>
@@ -2935,7 +3201,9 @@
       <c r="X22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y22" s="20"/>
+      <c r="Y22" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="Z22" s="1" t="s">
         <v>25</v>
       </c>
@@ -2954,7 +3222,9 @@
       <c r="AE22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AF22" s="19"/>
+      <c r="AF22" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="AG22" s="1" t="s">
         <v>25</v>
       </c>
@@ -2966,15 +3236,13 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ22" s="29">
+      <c r="AJ22" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:AF1"/>
-  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="A1:AI22">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -2995,8 +3263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD53E83B-D931-4243-AB5B-4A54E020B69A}">
   <dimension ref="A1:AJ22"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="AG3" sqref="AG3:AG22"/>
+    <sheetView topLeftCell="B1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:AJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3041,38 +3309,38 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
       <c r="AG1" s="4"/>
       <c r="AH1" s="4" t="s">
         <v>24</v>
@@ -3182,7 +3450,7 @@
       </c>
       <c r="AH2" s="9"/>
       <c r="AI2" s="4"/>
-      <c r="AJ2" s="27"/>
+      <c r="AJ2" s="25"/>
     </row>
     <row r="3" spans="1:36" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
@@ -3282,7 +3550,7 @@
         <f t="shared" ref="AI3:AI22" si="1">COUNTIF(C3:AF3,"AB")</f>
         <v>7</v>
       </c>
-      <c r="AJ3" s="28">
+      <c r="AJ3" s="26">
         <f>SUM(AH3:AI3)</f>
         <v>25</v>
       </c>
@@ -3385,7 +3653,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AJ4" s="28">
+      <c r="AJ4" s="26">
         <f t="shared" ref="AJ4:AJ22" si="2">SUM(AH4:AI4)</f>
         <v>25</v>
       </c>
@@ -3488,7 +3756,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ5" s="28">
+      <c r="AJ5" s="26">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -3591,7 +3859,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AJ6" s="28">
+      <c r="AJ6" s="26">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -3694,7 +3962,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AJ7" s="28">
+      <c r="AJ7" s="26">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -3797,7 +4065,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AJ8" s="28">
+      <c r="AJ8" s="26">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -3900,7 +4168,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ9" s="28">
+      <c r="AJ9" s="26">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -4003,7 +4271,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ10" s="28">
+      <c r="AJ10" s="26">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -4106,7 +4374,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AJ11" s="28">
+      <c r="AJ11" s="26">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -4209,7 +4477,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AJ12" s="28">
+      <c r="AJ12" s="26">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -4312,7 +4580,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AJ13" s="28">
+      <c r="AJ13" s="26">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -4415,7 +4683,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AJ14" s="28">
+      <c r="AJ14" s="26">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -4518,7 +4786,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ15" s="28">
+      <c r="AJ15" s="26">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -4621,7 +4889,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AJ16" s="28">
+      <c r="AJ16" s="26">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -4724,7 +4992,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ17" s="28">
+      <c r="AJ17" s="26">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -4827,7 +5095,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AJ18" s="28">
+      <c r="AJ18" s="26">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -4930,7 +5198,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ19" s="28">
+      <c r="AJ19" s="26">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -5033,7 +5301,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AJ20" s="28">
+      <c r="AJ20" s="26">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -5136,7 +5404,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ21" s="28">
+      <c r="AJ21" s="26">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -5239,7 +5507,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ22" s="28">
+      <c r="AJ22" s="26">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -5268,8 +5536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53FEE9F-40FE-4972-9271-37B656F690C8}">
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="AD23" sqref="AD23"/>
+    <sheetView topLeftCell="Z1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection sqref="A1:AI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5281,7 +5549,7 @@
     <col min="5" max="5" width="31.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.54296875" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.54296875" style="19" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="30.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32.81640625" bestFit="1" customWidth="1"/>
@@ -5313,45 +5581,45 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
       <c r="AG1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="AH1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="24" t="s">
+      <c r="AI1" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5449,7 +5717,7 @@
         <v>44895</v>
       </c>
       <c r="AH2" s="4"/>
-      <c r="AI2" s="31"/>
+      <c r="AI2" s="29"/>
     </row>
     <row r="3" spans="1:35" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -5548,7 +5816,7 @@
         <f t="shared" ref="AH3:AH22" si="1">COUNTIF(C3:AF3,"AB")</f>
         <v>7</v>
       </c>
-      <c r="AI3" s="26">
+      <c r="AI3" s="24">
         <f>SUM(AG3:AH3)</f>
         <v>26</v>
       </c>
@@ -5650,7 +5918,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AI4" s="26">
+      <c r="AI4" s="24">
         <f t="shared" ref="AI4:AI22" si="2">SUM(AG4:AH4)</f>
         <v>26</v>
       </c>
@@ -5752,7 +6020,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AI5" s="26">
+      <c r="AI5" s="24">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -5854,7 +6122,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AI6" s="26">
+      <c r="AI6" s="24">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -5956,7 +6224,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AI7" s="26">
+      <c r="AI7" s="24">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -6058,7 +6326,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AI8" s="26">
+      <c r="AI8" s="24">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -6160,7 +6428,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AI9" s="26">
+      <c r="AI9" s="24">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -6262,7 +6530,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AI10" s="26">
+      <c r="AI10" s="24">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -6364,7 +6632,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AI11" s="26">
+      <c r="AI11" s="24">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -6466,7 +6734,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AI12" s="26">
+      <c r="AI12" s="24">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -6568,7 +6836,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AI13" s="26">
+      <c r="AI13" s="24">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -6670,7 +6938,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AI14" s="26">
+      <c r="AI14" s="24">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -6772,7 +7040,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AI15" s="26">
+      <c r="AI15" s="24">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -6874,7 +7142,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AI16" s="26">
+      <c r="AI16" s="24">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -6976,7 +7244,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AI17" s="26">
+      <c r="AI17" s="24">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -7078,7 +7346,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AI18" s="26">
+      <c r="AI18" s="24">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -7180,7 +7448,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AI19" s="26">
+      <c r="AI19" s="24">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -7282,7 +7550,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AI20" s="26">
+      <c r="AI20" s="24">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -7384,7 +7652,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AI21" s="26">
+      <c r="AI21" s="24">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -7486,7 +7754,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AI22" s="26">
+      <c r="AI22" s="24">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -7515,8 +7783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2AEAB1-152D-4E95-A4D1-329CD3EAF933}">
   <dimension ref="A1:AJ22"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AJ1" sqref="AJ1:AJ22"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AF28" sqref="AF28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7560,38 +7828,38 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
       <c r="AG1" s="4"/>
       <c r="AH1" s="4" t="s">
         <v>24</v>
@@ -7802,7 +8070,7 @@
         <f t="shared" ref="AI3:AI22" si="1">COUNTIF(C3:AF3,"AB")</f>
         <v>9</v>
       </c>
-      <c r="AJ3" s="22">
+      <c r="AJ3" s="20">
         <f>SUM(AH3:AI3)</f>
         <v>26</v>
       </c>
@@ -7907,7 +8175,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="AJ4" s="22">
+      <c r="AJ4" s="20">
         <f t="shared" ref="AJ4:AJ22" si="2">SUM(AH4:AI4)</f>
         <v>26</v>
       </c>
@@ -8012,7 +8280,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AJ5" s="22">
+      <c r="AJ5" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -8117,7 +8385,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AJ6" s="22">
+      <c r="AJ6" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -8222,7 +8490,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AJ7" s="22">
+      <c r="AJ7" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -8327,7 +8595,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AJ8" s="22">
+      <c r="AJ8" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -8432,7 +8700,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ9" s="22">
+      <c r="AJ9" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -8537,7 +8805,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AJ10" s="22">
+      <c r="AJ10" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -8642,7 +8910,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ11" s="22">
+      <c r="AJ11" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -8747,7 +9015,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AJ12" s="22">
+      <c r="AJ12" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -8852,7 +9120,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ13" s="22">
+      <c r="AJ13" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -8957,7 +9225,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AJ14" s="22">
+      <c r="AJ14" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -9062,7 +9330,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ15" s="22">
+      <c r="AJ15" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -9167,7 +9435,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AJ16" s="22">
+      <c r="AJ16" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -9272,7 +9540,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ17" s="22">
+      <c r="AJ17" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -9377,7 +9645,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AJ18" s="22">
+      <c r="AJ18" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -9482,7 +9750,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ19" s="22">
+      <c r="AJ19" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -9587,7 +9855,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AJ20" s="22">
+      <c r="AJ20" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -9692,7 +9960,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ21" s="22">
+      <c r="AJ21" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -9797,7 +10065,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ22" s="22">
+      <c r="AJ22" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -9826,15 +10094,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA50B0D8-8950-4DD0-A585-AE1B4722672D}">
   <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AG3" sqref="AG3:AG22"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection sqref="A1:AG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.453125" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" customWidth="1"/>
-    <col min="3" max="3" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="29.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.54296875" bestFit="1" customWidth="1"/>
@@ -9872,36 +10140,90 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
+      <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="AE1" s="4" t="s">
         <v>24</v>
       </c>
@@ -9913,8 +10235,8 @@
       </c>
     </row>
     <row r="2" spans="1:33" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="7">
         <v>44593</v>
       </c>
@@ -9999,11 +10321,8 @@
       <c r="AD2" s="7">
         <v>44620</v>
       </c>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="9"/>
     </row>
-    <row r="3" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -10025,7 +10344,9 @@
       <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="14"/>
+      <c r="H3" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>25</v>
       </c>
@@ -10044,7 +10365,9 @@
       <c r="N3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="16"/>
+      <c r="O3" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="P3" s="1" t="s">
         <v>25</v>
       </c>
@@ -10063,7 +10386,9 @@
       <c r="U3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="16"/>
+      <c r="V3" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="W3" s="1" t="s">
         <v>26</v>
       </c>
@@ -10082,7 +10407,9 @@
       <c r="AB3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC3" s="16"/>
+      <c r="AC3" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="AD3" s="1" t="s">
         <v>25</v>
       </c>
@@ -10094,12 +10421,12 @@
         <f t="shared" ref="AF3:AF22" si="1">COUNTIF(C3:AD3,"AB")</f>
         <v>6</v>
       </c>
-      <c r="AG3" s="25">
+      <c r="AG3" s="23">
         <f>SUM(AE3:AF3)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -10121,7 +10448,9 @@
       <c r="G4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
@@ -10140,7 +10469,9 @@
       <c r="N4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="16"/>
+      <c r="O4" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="P4" s="1" t="s">
         <v>25</v>
       </c>
@@ -10159,7 +10490,9 @@
       <c r="U4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V4" s="16"/>
+      <c r="V4" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="W4" s="1" t="s">
         <v>25</v>
       </c>
@@ -10178,7 +10511,9 @@
       <c r="AB4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC4" s="16"/>
+      <c r="AC4" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="AD4" s="1" t="s">
         <v>25</v>
       </c>
@@ -10190,12 +10525,12 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AG4" s="25">
+      <c r="AG4" s="23">
         <f t="shared" ref="AG4:AG22" si="2">SUM(AE4:AF4)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -10217,7 +10552,9 @@
       <c r="G5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>26</v>
       </c>
@@ -10236,7 +10573,9 @@
       <c r="N5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="16"/>
+      <c r="O5" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="P5" s="1" t="s">
         <v>25</v>
       </c>
@@ -10255,7 +10594,9 @@
       <c r="U5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V5" s="16"/>
+      <c r="V5" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="W5" s="1" t="s">
         <v>25</v>
       </c>
@@ -10274,7 +10615,9 @@
       <c r="AB5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC5" s="16"/>
+      <c r="AC5" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="AD5" s="1" t="s">
         <v>25</v>
       </c>
@@ -10286,12 +10629,12 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AG5" s="25">
+      <c r="AG5" s="23">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -10313,7 +10656,9 @@
       <c r="G6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>26</v>
       </c>
@@ -10332,7 +10677,9 @@
       <c r="N6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="16"/>
+      <c r="O6" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="P6" s="1" t="s">
         <v>25</v>
       </c>
@@ -10351,7 +10698,9 @@
       <c r="U6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V6" s="16"/>
+      <c r="V6" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="W6" s="1" t="s">
         <v>25</v>
       </c>
@@ -10370,7 +10719,9 @@
       <c r="AB6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC6" s="16"/>
+      <c r="AC6" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="AD6" s="1" t="s">
         <v>25</v>
       </c>
@@ -10382,12 +10733,12 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AG6" s="25">
+      <c r="AG6" s="23">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -10409,7 +10760,9 @@
       <c r="G7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>26</v>
       </c>
@@ -10428,7 +10781,9 @@
       <c r="N7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="16"/>
+      <c r="O7" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="P7" s="1" t="s">
         <v>25</v>
       </c>
@@ -10447,7 +10802,9 @@
       <c r="U7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V7" s="16"/>
+      <c r="V7" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="W7" s="1" t="s">
         <v>25</v>
       </c>
@@ -10466,7 +10823,9 @@
       <c r="AB7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC7" s="16"/>
+      <c r="AC7" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="AD7" s="1" t="s">
         <v>25</v>
       </c>
@@ -10478,12 +10837,12 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AG7" s="25">
+      <c r="AG7" s="23">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -10505,7 +10864,9 @@
       <c r="G8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="I8" s="1" t="s">
         <v>25</v>
       </c>
@@ -10524,7 +10885,9 @@
       <c r="N8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="16"/>
+      <c r="O8" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="P8" s="1" t="s">
         <v>25</v>
       </c>
@@ -10543,7 +10906,9 @@
       <c r="U8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V8" s="16"/>
+      <c r="V8" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="W8" s="1" t="s">
         <v>25</v>
       </c>
@@ -10562,7 +10927,9 @@
       <c r="AB8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC8" s="16"/>
+      <c r="AC8" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="AD8" s="1" t="s">
         <v>25</v>
       </c>
@@ -10574,12 +10941,12 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AG8" s="25">
+      <c r="AG8" s="23">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -10601,7 +10968,9 @@
       <c r="G9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="14"/>
+      <c r="H9" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>25</v>
       </c>
@@ -10620,7 +10989,9 @@
       <c r="N9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="16"/>
+      <c r="O9" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="P9" s="1" t="s">
         <v>25</v>
       </c>
@@ -10639,7 +11010,9 @@
       <c r="U9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V9" s="16"/>
+      <c r="V9" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="W9" s="1" t="s">
         <v>25</v>
       </c>
@@ -10658,7 +11031,9 @@
       <c r="AB9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC9" s="16"/>
+      <c r="AC9" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="AD9" s="1" t="s">
         <v>25</v>
       </c>
@@ -10670,12 +11045,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AG9" s="25">
+      <c r="AG9" s="23">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -10697,7 +11072,9 @@
       <c r="G10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="I10" s="1" t="s">
         <v>26</v>
       </c>
@@ -10716,7 +11093,9 @@
       <c r="N10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="16"/>
+      <c r="O10" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="P10" s="1" t="s">
         <v>25</v>
       </c>
@@ -10735,7 +11114,9 @@
       <c r="U10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V10" s="16"/>
+      <c r="V10" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="W10" s="1" t="s">
         <v>25</v>
       </c>
@@ -10754,7 +11135,9 @@
       <c r="AB10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC10" s="16"/>
+      <c r="AC10" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="AD10" s="1" t="s">
         <v>25</v>
       </c>
@@ -10766,12 +11149,12 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AG10" s="25">
+      <c r="AG10" s="23">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -10793,7 +11176,9 @@
       <c r="G11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="14"/>
+      <c r="H11" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="I11" s="1" t="s">
         <v>25</v>
       </c>
@@ -10812,7 +11197,9 @@
       <c r="N11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O11" s="16"/>
+      <c r="O11" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="P11" s="1" t="s">
         <v>25</v>
       </c>
@@ -10831,7 +11218,9 @@
       <c r="U11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V11" s="16"/>
+      <c r="V11" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="W11" s="1" t="s">
         <v>25</v>
       </c>
@@ -10850,7 +11239,9 @@
       <c r="AB11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC11" s="16"/>
+      <c r="AC11" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="AD11" s="1" t="s">
         <v>25</v>
       </c>
@@ -10862,12 +11253,12 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AG11" s="25">
+      <c r="AG11" s="23">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -10889,7 +11280,9 @@
       <c r="G12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="I12" s="1" t="s">
         <v>25</v>
       </c>
@@ -10908,7 +11301,9 @@
       <c r="N12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="16"/>
+      <c r="O12" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="P12" s="1" t="s">
         <v>26</v>
       </c>
@@ -10927,7 +11322,9 @@
       <c r="U12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V12" s="16"/>
+      <c r="V12" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="W12" s="1" t="s">
         <v>25</v>
       </c>
@@ -10946,7 +11343,9 @@
       <c r="AB12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC12" s="16"/>
+      <c r="AC12" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="AD12" s="1" t="s">
         <v>25</v>
       </c>
@@ -10958,12 +11357,12 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AG12" s="25">
+      <c r="AG12" s="23">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -10985,7 +11384,9 @@
       <c r="G13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="14"/>
+      <c r="H13" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="I13" s="1" t="s">
         <v>25</v>
       </c>
@@ -11004,7 +11405,9 @@
       <c r="N13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="16"/>
+      <c r="O13" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="P13" s="1" t="s">
         <v>25</v>
       </c>
@@ -11023,7 +11426,9 @@
       <c r="U13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V13" s="16"/>
+      <c r="V13" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="W13" s="1" t="s">
         <v>25</v>
       </c>
@@ -11042,7 +11447,9 @@
       <c r="AB13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC13" s="16"/>
+      <c r="AC13" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="AD13" s="1" t="s">
         <v>25</v>
       </c>
@@ -11054,12 +11461,12 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AG13" s="25">
+      <c r="AG13" s="23">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -11081,7 +11488,9 @@
       <c r="G14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>25</v>
       </c>
@@ -11100,7 +11509,9 @@
       <c r="N14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="16"/>
+      <c r="O14" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="P14" s="1" t="s">
         <v>25</v>
       </c>
@@ -11119,7 +11530,9 @@
       <c r="U14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V14" s="16"/>
+      <c r="V14" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="W14" s="1" t="s">
         <v>25</v>
       </c>
@@ -11138,7 +11551,9 @@
       <c r="AB14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC14" s="16"/>
+      <c r="AC14" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="AD14" s="1" t="s">
         <v>25</v>
       </c>
@@ -11150,12 +11565,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AG14" s="25">
+      <c r="AG14" s="23">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -11177,7 +11592,9 @@
       <c r="G15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="14"/>
+      <c r="H15" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="I15" s="1" t="s">
         <v>25</v>
       </c>
@@ -11196,7 +11613,9 @@
       <c r="N15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O15" s="16"/>
+      <c r="O15" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="P15" s="1" t="s">
         <v>26</v>
       </c>
@@ -11215,7 +11634,9 @@
       <c r="U15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V15" s="16"/>
+      <c r="V15" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="W15" s="1" t="s">
         <v>25</v>
       </c>
@@ -11234,7 +11655,9 @@
       <c r="AB15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC15" s="16"/>
+      <c r="AC15" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="AD15" s="1" t="s">
         <v>25</v>
       </c>
@@ -11246,12 +11669,12 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AG15" s="25">
+      <c r="AG15" s="23">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -11273,7 +11696,9 @@
       <c r="G16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="14"/>
+      <c r="H16" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="I16" s="1" t="s">
         <v>25</v>
       </c>
@@ -11292,7 +11717,9 @@
       <c r="N16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O16" s="16"/>
+      <c r="O16" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="P16" s="1" t="s">
         <v>26</v>
       </c>
@@ -11311,7 +11738,9 @@
       <c r="U16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V16" s="16"/>
+      <c r="V16" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="W16" s="1" t="s">
         <v>25</v>
       </c>
@@ -11330,7 +11759,9 @@
       <c r="AB16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC16" s="16"/>
+      <c r="AC16" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="AD16" s="1" t="s">
         <v>25</v>
       </c>
@@ -11342,12 +11773,12 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AG16" s="25">
+      <c r="AG16" s="23">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -11369,7 +11800,9 @@
       <c r="G17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="H17" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="I17" s="1" t="s">
         <v>25</v>
       </c>
@@ -11388,7 +11821,9 @@
       <c r="N17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="16"/>
+      <c r="O17" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="P17" s="1" t="s">
         <v>25</v>
       </c>
@@ -11407,7 +11842,9 @@
       <c r="U17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V17" s="16"/>
+      <c r="V17" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="W17" s="1" t="s">
         <v>25</v>
       </c>
@@ -11426,7 +11863,9 @@
       <c r="AB17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC17" s="16"/>
+      <c r="AC17" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="AD17" s="1" t="s">
         <v>25</v>
       </c>
@@ -11438,12 +11877,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AG17" s="25">
+      <c r="AG17" s="23">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -11465,7 +11904,9 @@
       <c r="G18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="I18" s="1" t="s">
         <v>25</v>
       </c>
@@ -11484,7 +11925,9 @@
       <c r="N18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O18" s="16"/>
+      <c r="O18" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="P18" s="1" t="s">
         <v>25</v>
       </c>
@@ -11503,7 +11946,9 @@
       <c r="U18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V18" s="16"/>
+      <c r="V18" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="W18" s="1" t="s">
         <v>25</v>
       </c>
@@ -11522,7 +11967,9 @@
       <c r="AB18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC18" s="16"/>
+      <c r="AC18" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="AD18" s="1" t="s">
         <v>25</v>
       </c>
@@ -11534,12 +11981,12 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AG18" s="25">
+      <c r="AG18" s="23">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -11561,7 +12008,9 @@
       <c r="G19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="14"/>
+      <c r="H19" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="I19" s="1" t="s">
         <v>25</v>
       </c>
@@ -11580,7 +12029,9 @@
       <c r="N19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O19" s="16"/>
+      <c r="O19" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="P19" s="1" t="s">
         <v>25</v>
       </c>
@@ -11599,7 +12050,9 @@
       <c r="U19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V19" s="16"/>
+      <c r="V19" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="W19" s="1" t="s">
         <v>25</v>
       </c>
@@ -11618,7 +12071,9 @@
       <c r="AB19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC19" s="16"/>
+      <c r="AC19" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="AD19" s="1" t="s">
         <v>25</v>
       </c>
@@ -11630,12 +12085,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AG19" s="25">
+      <c r="AG19" s="23">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -11657,7 +12112,9 @@
       <c r="G20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="14"/>
+      <c r="H20" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="I20" s="1" t="s">
         <v>26</v>
       </c>
@@ -11676,7 +12133,9 @@
       <c r="N20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O20" s="16"/>
+      <c r="O20" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="P20" s="1" t="s">
         <v>25</v>
       </c>
@@ -11695,7 +12154,9 @@
       <c r="U20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V20" s="16"/>
+      <c r="V20" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="W20" s="1" t="s">
         <v>25</v>
       </c>
@@ -11714,7 +12175,9 @@
       <c r="AB20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC20" s="16"/>
+      <c r="AC20" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="AD20" s="1" t="s">
         <v>25</v>
       </c>
@@ -11726,12 +12189,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AG20" s="25">
+      <c r="AG20" s="23">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -11753,7 +12216,9 @@
       <c r="G21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="14"/>
+      <c r="H21" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="I21" s="1" t="s">
         <v>26</v>
       </c>
@@ -11772,7 +12237,9 @@
       <c r="N21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O21" s="16"/>
+      <c r="O21" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="P21" s="1" t="s">
         <v>25</v>
       </c>
@@ -11791,7 +12258,9 @@
       <c r="U21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V21" s="16"/>
+      <c r="V21" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="W21" s="1" t="s">
         <v>25</v>
       </c>
@@ -11810,7 +12279,9 @@
       <c r="AB21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC21" s="16"/>
+      <c r="AC21" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="AD21" s="1" t="s">
         <v>25</v>
       </c>
@@ -11822,12 +12293,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AG21" s="25">
+      <c r="AG21" s="23">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -11849,7 +12320,9 @@
       <c r="G22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="14"/>
+      <c r="H22" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="I22" s="1" t="s">
         <v>26</v>
       </c>
@@ -11868,7 +12341,9 @@
       <c r="N22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O22" s="16"/>
+      <c r="O22" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="P22" s="1" t="s">
         <v>25</v>
       </c>
@@ -11887,7 +12362,9 @@
       <c r="U22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V22" s="16"/>
+      <c r="V22" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="W22" s="1" t="s">
         <v>25</v>
       </c>
@@ -11906,7 +12383,9 @@
       <c r="AB22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC22" s="16"/>
+      <c r="AC22" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="AD22" s="1" t="s">
         <v>25</v>
       </c>
@@ -11918,17 +12397,14 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AG22" s="25">
+      <c r="AG22" s="23">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:AD1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="A1:AF22 AG1">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="A3:AF22 A1:AG1 C2:AD2">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11947,8 +12423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13E1AC6-5668-4389-A997-55E46E74B636}">
   <dimension ref="A1:AJ22"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3:AF22"/>
+    <sheetView topLeftCell="Z1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection sqref="A1:AJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11992,38 +12468,38 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
       <c r="AG1" s="6"/>
       <c r="AH1" s="6" t="s">
         <v>24</v>
@@ -12133,7 +12609,7 @@
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
-      <c r="AJ2" s="23"/>
+      <c r="AJ2" s="21"/>
     </row>
     <row r="3" spans="1:36" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -12235,7 +12711,7 @@
         <f t="shared" ref="AI3:AI22" si="1">COUNTIF(C3:AG3,"AB")</f>
         <v>6</v>
       </c>
-      <c r="AJ3" s="26">
+      <c r="AJ3" s="24">
         <f>SUM(AH3:AI3)</f>
         <v>27</v>
       </c>
@@ -12340,7 +12816,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AJ4" s="26">
+      <c r="AJ4" s="24">
         <f t="shared" ref="AJ4:AJ22" si="2">SUM(AH4:AI4)</f>
         <v>27</v>
       </c>
@@ -12445,7 +12921,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AJ5" s="26">
+      <c r="AJ5" s="24">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -12550,7 +13026,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AJ6" s="26">
+      <c r="AJ6" s="24">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -12655,7 +13131,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ7" s="26">
+      <c r="AJ7" s="24">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -12760,7 +13236,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AJ8" s="26">
+      <c r="AJ8" s="24">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -12865,7 +13341,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AJ9" s="26">
+      <c r="AJ9" s="24">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -12970,7 +13446,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ10" s="26">
+      <c r="AJ10" s="24">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -13075,7 +13551,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AJ11" s="26">
+      <c r="AJ11" s="24">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -13180,7 +13656,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AJ12" s="26">
+      <c r="AJ12" s="24">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -13285,7 +13761,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ13" s="26">
+      <c r="AJ13" s="24">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -13390,7 +13866,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ14" s="26">
+      <c r="AJ14" s="24">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -13495,7 +13971,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AJ15" s="26">
+      <c r="AJ15" s="24">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -13600,7 +14076,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AJ16" s="26">
+      <c r="AJ16" s="24">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -13705,7 +14181,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ17" s="26">
+      <c r="AJ17" s="24">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -13810,7 +14286,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AJ18" s="26">
+      <c r="AJ18" s="24">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -13915,7 +14391,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ19" s="26">
+      <c r="AJ19" s="24">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -14020,7 +14496,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AJ20" s="26">
+      <c r="AJ20" s="24">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -14125,7 +14601,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ21" s="26">
+      <c r="AJ21" s="24">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -14230,7 +14706,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ22" s="26">
+      <c r="AJ22" s="24">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -14260,7 +14736,7 @@
   <dimension ref="A1:AI22"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3:AF22"/>
+      <selection sqref="A1:AI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14304,38 +14780,38 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
       <c r="AG1" s="4" t="s">
         <v>24</v>
       </c>
@@ -14540,7 +15016,7 @@
         <f t="shared" ref="AH3:AH22" si="1">COUNTIF(C3:AF3,"AB")</f>
         <v>6</v>
       </c>
-      <c r="AI3" s="28">
+      <c r="AI3" s="26">
         <f>SUM(AG3:AH3)</f>
         <v>26</v>
       </c>
@@ -14642,7 +15118,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AI4" s="28">
+      <c r="AI4" s="26">
         <f t="shared" ref="AI4:AI22" si="2">SUM(AG4:AH4)</f>
         <v>26</v>
       </c>
@@ -14744,7 +15220,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AI5" s="28">
+      <c r="AI5" s="26">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -14846,7 +15322,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AI6" s="28">
+      <c r="AI6" s="26">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -14948,7 +15424,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AI7" s="28">
+      <c r="AI7" s="26">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -15050,7 +15526,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AI8" s="28">
+      <c r="AI8" s="26">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -15152,7 +15628,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AI9" s="28">
+      <c r="AI9" s="26">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -15254,7 +15730,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AI10" s="28">
+      <c r="AI10" s="26">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -15356,7 +15832,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AI11" s="28">
+      <c r="AI11" s="26">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -15458,7 +15934,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AI12" s="28">
+      <c r="AI12" s="26">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -15560,7 +16036,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AI13" s="28">
+      <c r="AI13" s="26">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -15662,7 +16138,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AI14" s="28">
+      <c r="AI14" s="26">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -15764,7 +16240,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AI15" s="28">
+      <c r="AI15" s="26">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -15866,7 +16342,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AI16" s="28">
+      <c r="AI16" s="26">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -15968,7 +16444,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AI17" s="28">
+      <c r="AI17" s="26">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -16070,7 +16546,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AI18" s="28">
+      <c r="AI18" s="26">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -16172,7 +16648,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AI19" s="28">
+      <c r="AI19" s="26">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -16274,7 +16750,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AI20" s="28">
+      <c r="AI20" s="26">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -16376,7 +16852,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AI21" s="28">
+      <c r="AI21" s="26">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -16478,7 +16954,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AI22" s="28">
+      <c r="AI22" s="26">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -16507,8 +16983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F222722-70AB-4D3C-A250-28341AAB67F7}">
   <dimension ref="A1:AJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="AG3" sqref="AG3:AG22"/>
+    <sheetView topLeftCell="Y1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection sqref="A1:AJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16553,38 +17029,38 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
       <c r="AG1" s="4"/>
       <c r="AH1" s="4" t="s">
         <v>24</v>
@@ -16592,7 +17068,7 @@
       <c r="AI1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AJ1" s="24" t="s">
+      <c r="AJ1" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -16694,7 +17170,7 @@
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
-      <c r="AJ2" s="24"/>
+      <c r="AJ2" s="22"/>
     </row>
     <row r="3" spans="1:36" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -16794,7 +17270,7 @@
         <f t="shared" ref="AI3:AI22" si="1">COUNTIF(C3:AF3,"AB")</f>
         <v>6</v>
       </c>
-      <c r="AJ3" s="26">
+      <c r="AJ3" s="24">
         <f>SUM(AH3:AI3)</f>
         <v>25</v>
       </c>
@@ -16897,7 +17373,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AJ4" s="26">
+      <c r="AJ4" s="24">
         <f t="shared" ref="AJ4:AJ22" si="2">SUM(AH4:AI4)</f>
         <v>25</v>
       </c>
@@ -17000,7 +17476,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AJ5" s="26">
+      <c r="AJ5" s="24">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -17103,7 +17579,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AJ6" s="26">
+      <c r="AJ6" s="24">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -17206,7 +17682,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ7" s="26">
+      <c r="AJ7" s="24">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -17309,7 +17785,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AJ8" s="26">
+      <c r="AJ8" s="24">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -17412,7 +17888,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AJ9" s="26">
+      <c r="AJ9" s="24">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -17515,7 +17991,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AJ10" s="26">
+      <c r="AJ10" s="24">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -17618,7 +18094,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AJ11" s="26">
+      <c r="AJ11" s="24">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -17721,7 +18197,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AJ12" s="26">
+      <c r="AJ12" s="24">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -17824,7 +18300,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ13" s="26">
+      <c r="AJ13" s="24">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -17927,7 +18403,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AJ14" s="26">
+      <c r="AJ14" s="24">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -18030,7 +18506,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ15" s="26">
+      <c r="AJ15" s="24">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -18133,7 +18609,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ16" s="26">
+      <c r="AJ16" s="24">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -18236,7 +18712,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AJ17" s="26">
+      <c r="AJ17" s="24">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -18339,7 +18815,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ18" s="26">
+      <c r="AJ18" s="24">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -18442,7 +18918,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ19" s="26">
+      <c r="AJ19" s="24">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -18545,7 +19021,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AJ20" s="26">
+      <c r="AJ20" s="24">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -18648,7 +19124,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ21" s="26">
+      <c r="AJ21" s="24">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -18751,7 +19227,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ22" s="26">
+      <c r="AJ22" s="24">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -18781,7 +19257,7 @@
   <dimension ref="A1:AI22"/>
   <sheetViews>
     <sheetView topLeftCell="Y1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3:AI22"/>
+      <selection sqref="A1:AI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18825,45 +19301,45 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
       <c r="AG1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="AH1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="24" t="s">
+      <c r="AI1" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -19061,7 +19537,7 @@
         <f t="shared" ref="AH3:AH22" si="1">COUNTIF(C3:AF3,"AB")</f>
         <v>6</v>
       </c>
-      <c r="AI3" s="22">
+      <c r="AI3" s="20">
         <f>SUM(AG3:AH3)</f>
         <v>26</v>
       </c>
@@ -19163,7 +19639,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AI4" s="22">
+      <c r="AI4" s="20">
         <f t="shared" ref="AI4:AI22" si="2">SUM(AG4:AH4)</f>
         <v>26</v>
       </c>
@@ -19265,7 +19741,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AI5" s="22">
+      <c r="AI5" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -19367,7 +19843,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AI6" s="22">
+      <c r="AI6" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -19469,7 +19945,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AI7" s="22">
+      <c r="AI7" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -19571,7 +20047,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AI8" s="22">
+      <c r="AI8" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -19673,7 +20149,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AI9" s="22">
+      <c r="AI9" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -19775,7 +20251,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AI10" s="22">
+      <c r="AI10" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -19877,7 +20353,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AI11" s="22">
+      <c r="AI11" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -19979,7 +20455,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AI12" s="22">
+      <c r="AI12" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -20081,7 +20557,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AI13" s="22">
+      <c r="AI13" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -20183,7 +20659,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AI14" s="22">
+      <c r="AI14" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -20285,7 +20761,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AI15" s="22">
+      <c r="AI15" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -20387,7 +20863,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AI16" s="22">
+      <c r="AI16" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -20489,7 +20965,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AI17" s="22">
+      <c r="AI17" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -20591,7 +21067,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AI18" s="22">
+      <c r="AI18" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -20693,7 +21169,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AI19" s="22">
+      <c r="AI19" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -20795,7 +21271,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AI20" s="22">
+      <c r="AI20" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -20897,7 +21373,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AI21" s="22">
+      <c r="AI21" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -20999,7 +21475,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AI22" s="22">
+      <c r="AI22" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -21029,7 +21505,7 @@
   <dimension ref="A1:AJ22"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="AJ1" sqref="AJ1:AJ22"/>
+      <selection sqref="A1:AJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21077,38 +21553,38 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
       <c r="AG1" s="4"/>
       <c r="AH1" s="4" t="s">
         <v>24</v>
@@ -21116,7 +21592,7 @@
       <c r="AI1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AJ1" s="27" t="s">
+      <c r="AJ1" s="25" t="s">
         <v>37</v>
       </c>
     </row>
@@ -21317,7 +21793,7 @@
         <f t="shared" ref="AI3:AI22" si="1">COUNTIF(C3:AF3,"AB")</f>
         <v>6</v>
       </c>
-      <c r="AJ3" s="22">
+      <c r="AJ3" s="20">
         <f>SUM(AH3:AI3)</f>
         <v>26</v>
       </c>
@@ -21420,7 +21896,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AJ4" s="22">
+      <c r="AJ4" s="20">
         <f t="shared" ref="AJ4:AJ22" si="2">SUM(AH4:AI4)</f>
         <v>26</v>
       </c>
@@ -21523,7 +21999,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AJ5" s="22">
+      <c r="AJ5" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -21626,7 +22102,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AJ6" s="22">
+      <c r="AJ6" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -21729,7 +22205,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ7" s="22">
+      <c r="AJ7" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -21832,7 +22308,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ8" s="22">
+      <c r="AJ8" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -21935,7 +22411,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ9" s="22">
+      <c r="AJ9" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -22038,7 +22514,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ10" s="22">
+      <c r="AJ10" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -22141,7 +22617,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AJ11" s="22">
+      <c r="AJ11" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -22244,7 +22720,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AJ12" s="22">
+      <c r="AJ12" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -22347,7 +22823,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AJ13" s="22">
+      <c r="AJ13" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -22450,7 +22926,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AJ14" s="22">
+      <c r="AJ14" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -22553,7 +23029,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ15" s="22">
+      <c r="AJ15" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -22656,7 +23132,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AJ16" s="22">
+      <c r="AJ16" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -22759,7 +23235,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ17" s="22">
+      <c r="AJ17" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -22862,7 +23338,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ18" s="22">
+      <c r="AJ18" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -22965,7 +23441,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ19" s="22">
+      <c r="AJ19" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -23068,7 +23544,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AJ20" s="22">
+      <c r="AJ20" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -23171,7 +23647,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ21" s="22">
+      <c r="AJ21" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -23274,7 +23750,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ22" s="22">
+      <c r="AJ22" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -23305,7 +23781,7 @@
   <dimension ref="A1:AJ22"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="AJ1" sqref="AJ1:AJ22"/>
+      <selection sqref="A1:AJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23349,38 +23825,38 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
       <c r="AG1" s="4"/>
       <c r="AH1" s="4" t="s">
         <v>24</v>
@@ -23388,7 +23864,7 @@
       <c r="AI1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AJ1" s="27" t="s">
+      <c r="AJ1" s="25" t="s">
         <v>37</v>
       </c>
     </row>
@@ -23591,7 +24067,7 @@
         <f t="shared" ref="AI3:AI22" si="1">COUNTIF(C3:AF3,"AB")</f>
         <v>7</v>
       </c>
-      <c r="AJ3" s="22">
+      <c r="AJ3" s="20">
         <f>SUM(AH3:AI3)</f>
         <v>26</v>
       </c>
@@ -23696,7 +24172,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AJ4" s="22">
+      <c r="AJ4" s="20">
         <f t="shared" ref="AJ4:AJ22" si="2">SUM(AH4:AI4)</f>
         <v>26</v>
       </c>
@@ -23801,7 +24277,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AJ5" s="22">
+      <c r="AJ5" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -23906,7 +24382,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="AJ6" s="22">
+      <c r="AJ6" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -24011,7 +24487,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AJ7" s="22">
+      <c r="AJ7" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -24116,7 +24592,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AJ8" s="22">
+      <c r="AJ8" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -24221,7 +24697,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AJ9" s="22">
+      <c r="AJ9" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -24326,7 +24802,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AJ10" s="22">
+      <c r="AJ10" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -24431,7 +24907,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AJ11" s="22">
+      <c r="AJ11" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -24536,7 +25012,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AJ12" s="22">
+      <c r="AJ12" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -24641,7 +25117,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AJ13" s="22">
+      <c r="AJ13" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -24746,7 +25222,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AJ14" s="22">
+      <c r="AJ14" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -24851,7 +25327,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AJ15" s="22">
+      <c r="AJ15" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -24956,7 +25432,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AJ16" s="22">
+      <c r="AJ16" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -25061,7 +25537,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ17" s="22">
+      <c r="AJ17" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -25166,7 +25642,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AJ18" s="22">
+      <c r="AJ18" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -25271,7 +25747,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ19" s="22">
+      <c r="AJ19" s="20">
         <f>SUM(AH19:AI19)</f>
         <v>26</v>
       </c>
@@ -25376,7 +25852,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AJ20" s="22">
+      <c r="AJ20" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -25481,7 +25957,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ21" s="22">
+      <c r="AJ21" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -25586,7 +26062,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AJ22" s="22">
+      <c r="AJ22" s="20">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -25615,8 +26091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70316755-742A-411F-B018-E2B64AF1663D}">
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AE27" sqref="AE27"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection sqref="A1:AI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25657,38 +26133,38 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
       <c r="AG1" s="4" t="s">
         <v>24</v>
       </c>
@@ -25892,7 +26368,7 @@
         <f t="shared" ref="AH3:AH22" si="1">COUNTIF(C3:AF3,"AB")</f>
         <v>9</v>
       </c>
-      <c r="AI3" s="29">
+      <c r="AI3" s="27">
         <f>SUM(AG3:AH3)</f>
         <v>26</v>
       </c>
@@ -25994,7 +26470,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AI4" s="29">
+      <c r="AI4" s="27">
         <f t="shared" ref="AI4:AI22" si="2">SUM(AG4:AH4)</f>
         <v>26</v>
       </c>
@@ -26096,7 +26572,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AI5" s="29">
+      <c r="AI5" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -26198,7 +26674,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AI6" s="29">
+      <c r="AI6" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -26300,7 +26776,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AI7" s="29">
+      <c r="AI7" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -26402,7 +26878,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AI8" s="29">
+      <c r="AI8" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -26504,7 +26980,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AI9" s="29">
+      <c r="AI9" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -26606,7 +27082,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AI10" s="29">
+      <c r="AI10" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -26708,7 +27184,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AI11" s="29">
+      <c r="AI11" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -26810,7 +27286,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AI12" s="29">
+      <c r="AI12" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -26912,7 +27388,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AI13" s="29">
+      <c r="AI13" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -27014,7 +27490,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AI14" s="29">
+      <c r="AI14" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -27116,7 +27592,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AI15" s="29">
+      <c r="AI15" s="27">
         <f>SUM(AG15:AH15)</f>
         <v>26</v>
       </c>
@@ -27218,7 +27694,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AI16" s="29">
+      <c r="AI16" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -27320,7 +27796,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AI17" s="29">
+      <c r="AI17" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -27422,7 +27898,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AI18" s="29">
+      <c r="AI18" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -27524,7 +28000,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AI19" s="29">
+      <c r="AI19" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -27626,7 +28102,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AI20" s="29">
+      <c r="AI20" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -27728,7 +28204,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AI21" s="29">
+      <c r="AI21" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -27830,7 +28306,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AI22" s="29">
+      <c r="AI22" s="27">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
